--- a/spug_web/public/resource/主机导入模板.xlsx
+++ b/spug_web/public/resource/主机导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12600"/>
+    <workbookView windowWidth="21090" windowHeight="8347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,45 +14,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>实体项目</t>
   </si>
   <si>
-    <t>主机分组</t>
-  </si>
-  <si>
-    <t>主机地址</t>
+    <t>虚拟IP</t>
+  </si>
+  <si>
+    <t>外网IP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>业务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+  </si>
+  <si>
+    <t>连接用户</t>
   </si>
   <si>
     <t>端口</t>
   </si>
   <si>
-    <t>登录用户</t>
-  </si>
-  <si>
-    <t>登录密码</t>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>密码过期天数</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>系统类型</t>
+  </si>
+  <si>
+    <t>运营商</t>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>所属区域</t>
+  </si>
+  <si>
+    <t>实际用途</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>运维</t>
+  </si>
+  <si>
+    <t>安装服务</t>
+  </si>
+  <si>
+    <t>补丁服务与版本</t>
+  </si>
+  <si>
+    <t>扩展配置</t>
+  </si>
+  <si>
+    <t>环境</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>东莞市政务数据大脑暨智慧城市IOC运行中心建设项目</t>
-  </si>
-  <si>
-    <t>IOC</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>东莞市政务数据大脑暨智慧城市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>IOC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>运行中心建设项目</t>
+    </r>
   </si>
   <si>
     <t>1.1.1.1</t>
   </si>
   <si>
-    <t>root</t>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>192.168.1.107</t>
+  </si>
+  <si>
+    <t>ioc</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>这是一条例子，请替换为自己的数据</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>电信</t>
+  </si>
+  <si>
+    <t>主机</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>这是一条例子，红色的不能为空</t>
   </si>
 </sst>
 </file>
@@ -60,12 +166,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,17 +180,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="文泉驿微米黑"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="文泉驿微米黑"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="文泉驿微米黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="文泉驿微米黑"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,6 +263,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -105,7 +278,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,30 +314,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,71 +351,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -233,43 +372,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,133 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,8 +563,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,7 +588,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,30 +619,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +640,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -503,175 +657,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -991,67 +1138,173 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="13.1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="47.8833333333333" customWidth="true"/>
-    <col min="2" max="2" width="17.0666666666667" customWidth="true"/>
-    <col min="3" max="3" width="23.0666666666667" customWidth="true"/>
-    <col min="7" max="7" width="31.5666666666667" customWidth="true"/>
+    <col min="1" max="1" width="18.2583333333333" style="1" customWidth="true"/>
+    <col min="2" max="3" width="9.5" style="1"/>
+    <col min="4" max="4" width="11.8833333333333" style="1" customWidth="true"/>
+    <col min="5" max="7" width="9.5" style="1"/>
+    <col min="8" max="8" width="13.8166666666667" style="1" customWidth="true"/>
+    <col min="9" max="16384" width="9.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="true" ht="13.15" spans="1:21">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+    <row r="2" s="1" customFormat="true" ht="13.15" spans="1:21">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T2 T3:T65536">
+      <formula1>"生产,测试"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
+      <formula1>"东莞市政务数据大脑暨智慧城市IOC运行中心建设项目,东莞市疫情动态查询系统项目,东莞市疫情防控数据管理平台项目,东莞市跨境货车司机信息管理系统项目,疫情地图项目,粤康码"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 J3:J65536">
+      <formula1>"Linux,Windows"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2 L3:L65536">
+      <formula1>"主机,数据库,redis"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 K3:K65536">
+      <formula1>"电信,联通,移动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"root,ioc"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/spug_web/public/resource/主机导入模板.xlsx
+++ b/spug_web/public/resource/主机导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21090" windowHeight="8347"/>
+    <workbookView windowWidth="28200" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>实体项目</t>
   </si>
   <si>
+    <t>项目子类</t>
+  </si>
+  <si>
+    <t>所属集群</t>
+  </si>
+  <si>
+    <t>主机名</t>
+  </si>
+  <si>
     <t>虚拟IP</t>
   </si>
   <si>
     <t>外网IP</t>
+  </si>
+  <si>
+    <t>业务IP</t>
+  </si>
+  <si>
+    <t>连接用户</t>
+  </si>
+  <si>
+    <t>端口</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>资源类别</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>内核版本</t>
+  </si>
+  <si>
+    <t>CPU逻辑核心</t>
+  </si>
+  <si>
+    <t>内存(G)</t>
+  </si>
+  <si>
+    <t>系统类型</t>
+  </si>
+  <si>
+    <t>设备位置</t>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>系统盘</t>
   </si>
   <si>
     <r>
@@ -32,7 +83,7 @@
         <rFont val="文泉驿微米黑"/>
         <charset val="1"/>
       </rPr>
-      <t>业务</t>
+      <t>数据盘</t>
     </r>
     <r>
       <rPr>
@@ -41,32 +92,44 @@
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t>IP</t>
+      <t>(</t>
     </r>
-  </si>
-  <si>
-    <t>连接用户</t>
-  </si>
-  <si>
-    <t>端口</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>密码过期天数</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>系统类型</t>
-  </si>
-  <si>
-    <t>运营商</t>
-  </si>
-  <si>
-    <t>资源类型</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>容量单位为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>G,windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>不用添加单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>所属区域</t>
@@ -75,6 +138,12 @@
     <t>实际用途</t>
   </si>
   <si>
+    <t>状态(在/离线)</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
     <t>开发</t>
   </si>
   <si>
@@ -84,16 +153,46 @@
     <t>安装服务</t>
   </si>
   <si>
-    <t>补丁服务与版本</t>
-  </si>
-  <si>
-    <t>扩展配置</t>
-  </si>
-  <si>
     <t>环境</t>
   </si>
   <si>
+    <t>待回收ip</t>
+  </si>
+  <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>东莞市跨境货车司机信息管理系统项目;东莞市疫情防控数据管理平台项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据湖子项目test;一湖四平台 </t>
+  </si>
+  <si>
+    <t>rancher集群</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>ALLTosea20181111</t>
+  </si>
+  <si>
+    <t>云主机</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>电信区</t>
+  </si>
+  <si>
+    <t>主机</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <r>
@@ -102,7 +201,7 @@
         <rFont val="文泉驿微米黑"/>
         <charset val="1"/>
       </rPr>
-      <t>东莞市政务数据大脑暨智慧城市</t>
+      <t>数据盘</t>
     </r>
     <r>
       <rPr>
@@ -110,7 +209,7 @@
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t>IOC</t>
+      <t>:D;</t>
     </r>
     <r>
       <rPr>
@@ -118,47 +217,72 @@
         <rFont val="文泉驿微米黑"/>
         <charset val="1"/>
       </rPr>
-      <t>运行中心建设项目</t>
+      <t>容量</t>
     </r>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>2.2.2.2</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:4465;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:E;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:60;</t>
+    </r>
+  </si>
+  <si>
+    <t>政务外网-办公区</t>
+  </si>
+  <si>
+    <t>在线</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>例子</t>
   </si>
   <si>
     <t>192.168.1.107</t>
   </si>
   <si>
-    <t>ioc</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>root</t>
+  </si>
+  <si>
+    <t>12345AAA6</t>
   </si>
   <si>
     <t>Linux</t>
-  </si>
-  <si>
-    <t>电信</t>
-  </si>
-  <si>
-    <t>主机</t>
-  </si>
-  <si>
-    <t>网络</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>生产</t>
-  </si>
-  <si>
-    <t>这是一条例子，红色的不能为空</t>
   </si>
 </sst>
 </file>
@@ -166,12 +290,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,19 +320,75 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="文泉驿微米黑"/>
+      <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="文泉驿微米黑"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,16 +402,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,107 +457,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,25 +485,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,151 +617,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,32 +676,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +693,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,8 +739,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,157 +755,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,8 +930,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1138,36 +1249,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="13.1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="13.1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="18.2583333333333" style="1" customWidth="true"/>
-    <col min="2" max="3" width="9.5" style="1"/>
-    <col min="4" max="4" width="11.8833333333333" style="1" customWidth="true"/>
-    <col min="5" max="7" width="9.5" style="1"/>
-    <col min="8" max="8" width="13.8166666666667" style="1" customWidth="true"/>
-    <col min="9" max="16384" width="9.5" style="1"/>
+    <col min="1" max="1" width="31.7583333333333" style="1" customWidth="true"/>
+    <col min="2" max="20" width="9.5" style="1"/>
+    <col min="21" max="21" width="63.7583333333333" style="1" customWidth="true"/>
+    <col min="22" max="16384" width="9.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.15" spans="1:21">
+    <row r="1" s="1" customFormat="true" ht="13.15" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1176,19 +1285,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1203,106 +1312,198 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="13.15" spans="1:21">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="true" ht="13.15" spans="1:31">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3389</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2012</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2012</v>
+      </c>
+      <c r="O2" s="3">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>34</v>
+      <c r="J3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T2 T3:T65536">
-      <formula1>"生产,测试"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
-      <formula1>"东莞市政务数据大脑暨智慧城市IOC运行中心建设项目,东莞市疫情动态查询系统项目,东莞市疫情防控数据管理平台项目,东莞市跨境货车司机信息管理系统项目,疫情地图项目,粤康码"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 J3:J65536">
-      <formula1>"Linux,Windows"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2 L3:L65536">
-      <formula1>"主机,数据库,redis"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 K3:K65536">
-      <formula1>"电信,联通,移动"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"root,ioc"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+      <formula1>"root,ioc,administrator,telnet"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/spug_web/public/resource/主机导入模板.xlsx
+++ b/spug_web/public/resource/主机导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12600"/>
+    <workbookView windowWidth="25162" windowHeight="10627"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>实体项目</t>
   </si>
@@ -174,10 +174,10 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>ALLTosea20181111</t>
+    <t>root</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>云主机</t>
@@ -273,15 +273,6 @@
     <t>例子</t>
   </si>
   <si>
-    <t>192.168.1.107</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>12345AAA6</t>
-  </si>
-  <si>
     <t>Linux</t>
   </si>
 </sst>
@@ -290,10 +281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -334,6 +325,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -342,53 +363,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,46 +396,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +430,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,115 +476,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,55 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +673,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,15 +702,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,11 +736,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,162 +761,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1252,7 +1243,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="13.1" outlineLevelRow="2"/>
@@ -1449,16 +1440,16 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I3" s="3">
         <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>37</v>
@@ -1471,7 +1462,7 @@
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>39</v>

--- a/spug_web/public/resource/主机导入模板.xlsx
+++ b/spug_web/public/resource/主机导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25162" windowHeight="10627"/>
+    <workbookView windowWidth="28200" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>实体项目</t>
   </si>
@@ -171,36 +171,170 @@
     <t>rancher集群</t>
   </si>
   <si>
+    <t>127.0.0.3</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>云主机</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>电信</t>
+  </si>
+  <si>
+    <t>主机</t>
+  </si>
+  <si>
+    <r>
+      <t>系统盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:C;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>容量:4465G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数据盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:D;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:4465G;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:E;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:60G;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>政务外网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
+      <t>办公网</t>
+    </r>
+  </si>
+  <si>
+    <t>在线</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>例子</t>
+  </si>
+  <si>
     <t>127.0.0.1</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>云主机</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>电信区</t>
-  </si>
-  <si>
-    <t>主机</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <r>
+      <t>系统盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:/dev/sdb;</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="文泉驿微米黑"/>
         <charset val="1"/>
       </rPr>
+      <t>容量:4465G</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>数据盘</t>
     </r>
     <r>
@@ -209,7 +343,7 @@
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t>:D;</t>
+      <t>:/dev/sd1;</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +359,7 @@
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t>:4465;</t>
+      <t>:4465G;</t>
     </r>
     <r>
       <rPr>
@@ -241,7 +375,7 @@
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t>:E;</t>
+      <t>:/dev/sd2;</t>
     </r>
     <r>
       <rPr>
@@ -257,23 +391,11 @@
         <rFont val="Arial"/>
         <charset val="1"/>
       </rPr>
-      <t>:60;</t>
-    </r>
-  </si>
-  <si>
-    <t>政务外网-办公区</t>
-  </si>
-  <si>
-    <t>在线</t>
-  </si>
-  <si>
-    <t>生产</t>
-  </si>
-  <si>
-    <t>例子</t>
-  </si>
-  <si>
-    <t>Linux</t>
+      <t>:60G;</t>
+    </r>
+  </si>
+  <si>
+    <t>127.0.0.2</t>
   </si>
 </sst>
 </file>
@@ -281,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -311,157 +433,157 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,187 +592,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,60 +806,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,157 +835,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,6 +1049,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1240,16 +1370,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="13.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="13.1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="31.7583333333333" style="1" customWidth="true"/>
-    <col min="2" max="20" width="9.5" style="1"/>
+    <col min="2" max="6" width="9.5" style="1"/>
+    <col min="7" max="7" width="11.375" style="1" customWidth="true"/>
+    <col min="8" max="19" width="9.5" style="1"/>
+    <col min="20" max="20" width="32.6916666666667" style="1" customWidth="true"/>
     <col min="21" max="21" width="63.7583333333333" style="1" customWidth="true"/>
     <col min="22" max="16384" width="9.5" style="1"/>
   </cols>
@@ -1273,16 +1406,16 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1395,19 +1528,19 @@
       <c r="Q2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="W2" s="3"/>
@@ -1426,7 +1559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" ht="13.15" spans="1:31">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1440,10 +1573,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3">
         <v>22</v>
@@ -1454,25 +1587,27 @@
       <c r="K3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3" t="s">
+      <c r="T3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="W3" s="3"/>
@@ -1491,9 +1626,86 @@
         <v>46</v>
       </c>
     </row>
+    <row r="4" s="1" customFormat="true" ht="13.15" spans="1:31">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3389</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2012</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2012</v>
+      </c>
+      <c r="O4" s="3">
+        <v>12</v>
+      </c>
+      <c r="P4" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H1:H3 H5:H1048576">
       <formula1>"root,ioc,administrator,telnet"</formula1>
     </dataValidation>
   </dataValidations>

--- a/spug_web/public/resource/主机导入模板.xlsx
+++ b/spug_web/public/resource/主机导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>实体项目</t>
   </si>
@@ -162,6 +162,18 @@
     <t>备注</t>
   </si>
   <si>
+    <t>硬盘分区</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>关系标记</t>
+  </si>
+  <si>
     <t>东莞市跨境货车司机信息管理系统项目;东莞市疫情防控数据管理平台项目</t>
   </si>
   <si>
@@ -193,6 +205,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
       <t>系统盘</t>
     </r>
     <r>
@@ -214,6 +231,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
       <t>数据盘</t>
     </r>
     <r>
@@ -275,6 +297,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
       <t>政务外网</t>
     </r>
     <r>
@@ -304,6 +331,9 @@
     <t>例子</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>127.0.0.1</t>
   </si>
   <si>
@@ -314,6 +344,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
       <t>系统盘</t>
     </r>
     <r>
@@ -335,6 +370,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
       <t>数据盘</t>
     </r>
     <r>
@@ -404,9 +444,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -440,14 +480,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,6 +523,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +578,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -506,82 +622,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -604,175 +644,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,26 +865,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -875,6 +895,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -894,148 +934,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1370,10 +1410,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="13.1" outlineLevelRow="3"/>
@@ -1387,7 +1427,7 @@
     <col min="22" max="16384" width="9.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.15" spans="1:31">
+    <row r="1" s="1" customFormat="true" ht="13.15" spans="1:35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1481,37 +1521,49 @@
       <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="13.15" spans="1:31">
+    <row r="2" s="1" customFormat="true" ht="13.15" spans="1:34">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3">
         <v>3389</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="3">
         <v>2012</v>
@@ -1526,66 +1578,69 @@
         <v>66</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" ht="13.15" spans="1:31">
+    <row r="3" ht="13.15" spans="1:34">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I3" s="3">
         <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1593,69 +1648,72 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="13.15" spans="1:31">
+    <row r="4" s="1" customFormat="true" ht="13.15" spans="1:34">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I4" s="3">
         <v>3389</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M4" s="3">
         <v>2012</v>
@@ -1670,37 +1728,40 @@
         <v>66</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
